--- a/data/carros.xlsx
+++ b/data/carros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a99053bcf37ece6/Favoritos/Escritorio/clandestino-/clandestino/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9B39AF1-7FAE-423A-92B0-98AF2F74572E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{B9B39AF1-7FAE-423A-92B0-98AF2F74572E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{340FF007-7A6D-4A9F-AFC0-4D430DAFEBAF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{016873A0-FB93-4F38-8F3C-6EB95092C3BA}"/>
   </bookViews>
@@ -359,9 +359,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,7 +753,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE12792-DD01-4F54-B620-E2340E657BA4}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -810,10 +811,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
       <c r="D2">
@@ -825,19 +826,19 @@
       <c r="F2">
         <v>40</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>14</v>
       </c>
       <c r="J2">
         <v>80</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -845,10 +846,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3">
@@ -860,19 +861,19 @@
       <c r="F3">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
       <c r="H3">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
       <c r="J3">
         <v>156</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -880,10 +881,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
       <c r="D4">
@@ -895,19 +896,19 @@
       <c r="F4">
         <v>42</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4">
         <v>92</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -915,10 +916,10 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5">
@@ -930,19 +931,19 @@
       <c r="F5">
         <v>12</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
       <c r="H5">
         <v>2</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>19</v>
       </c>
       <c r="J5">
         <v>121</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -950,10 +951,10 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
       <c r="D6">
@@ -965,19 +966,19 @@
       <c r="F6">
         <v>35</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6">
         <v>110</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -985,10 +986,10 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>29</v>
       </c>
       <c r="D7">
@@ -1000,19 +1001,19 @@
       <c r="F7">
         <v>22</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>30</v>
       </c>
       <c r="H7">
         <v>5</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>19</v>
       </c>
       <c r="J7">
         <v>157</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1020,10 +1021,10 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
       <c r="D8">
@@ -1035,19 +1036,19 @@
       <c r="F8">
         <v>8</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>19</v>
       </c>
       <c r="J8">
         <v>197</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1055,10 +1056,10 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
       <c r="D9">
@@ -1070,19 +1071,19 @@
       <c r="F9">
         <v>25</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>37</v>
       </c>
       <c r="H9">
         <v>5</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>19</v>
       </c>
       <c r="J9">
         <v>130</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1090,10 +1091,10 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10">
@@ -1105,19 +1106,19 @@
       <c r="F10">
         <v>32</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>41</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>14</v>
       </c>
       <c r="J10">
         <v>122</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1125,10 +1126,10 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>44</v>
       </c>
       <c r="D11">
@@ -1140,19 +1141,19 @@
       <c r="F11">
         <v>29</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>22</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>19</v>
       </c>
       <c r="J11">
         <v>105</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1160,10 +1161,10 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>46</v>
       </c>
       <c r="D12">
@@ -1175,19 +1176,19 @@
       <c r="F12">
         <v>33</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>18</v>
       </c>
       <c r="H12">
         <v>5</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>19</v>
       </c>
       <c r="J12">
         <v>102</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1195,14 +1196,14 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>48</v>
       </c>
       <c r="D13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E13">
         <v>223000000</v>
@@ -1210,19 +1211,19 @@
       <c r="F13">
         <v>28</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>37</v>
       </c>
       <c r="H13">
         <v>5</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>19</v>
       </c>
       <c r="J13">
         <v>104</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1230,10 +1231,10 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>50</v>
       </c>
       <c r="D14">
@@ -1245,19 +1246,19 @@
       <c r="F14">
         <v>38</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>27</v>
       </c>
       <c r="H14">
         <v>5</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>14</v>
       </c>
       <c r="J14">
         <v>98</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1265,10 +1266,10 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15">
@@ -1280,19 +1281,19 @@
       <c r="F15">
         <v>34</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15">
         <v>5</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>19</v>
       </c>
       <c r="J15">
         <v>109</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1300,10 +1301,10 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>54</v>
       </c>
       <c r="D16">
@@ -1315,19 +1316,19 @@
       <c r="F16">
         <v>15</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>41</v>
       </c>
       <c r="H16">
         <v>5</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>14</v>
       </c>
       <c r="J16">
         <v>97</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1335,10 +1336,10 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>56</v>
       </c>
       <c r="D17">
@@ -1350,19 +1351,19 @@
       <c r="F17">
         <v>16</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>19</v>
       </c>
       <c r="J17">
         <v>110</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1370,10 +1371,10 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>57</v>
       </c>
       <c r="D18">
@@ -1385,19 +1386,19 @@
       <c r="F18">
         <v>14</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>58</v>
       </c>
       <c r="H18">
         <v>4</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>19</v>
       </c>
       <c r="J18">
         <v>173</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1405,10 +1406,10 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>59</v>
       </c>
       <c r="D19">
@@ -1420,19 +1421,19 @@
       <c r="F19">
         <v>12</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>19</v>
       </c>
       <c r="J19">
         <v>123</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1440,10 +1441,10 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>60</v>
       </c>
       <c r="D20">
@@ -1455,19 +1456,19 @@
       <c r="F20">
         <v>29</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>22</v>
       </c>
       <c r="H20">
         <v>7</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>19</v>
       </c>
       <c r="J20">
         <v>144</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1475,14 +1476,14 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
       <c r="D21">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E21">
         <v>1050000000</v>
@@ -1490,19 +1491,19 @@
       <c r="F21">
         <v>17</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>18</v>
       </c>
       <c r="H21">
         <v>5</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>19</v>
       </c>
       <c r="J21">
         <v>94</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1510,10 +1511,10 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>63</v>
       </c>
       <c r="D22">
@@ -1525,19 +1526,19 @@
       <c r="F22">
         <v>36</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>37</v>
       </c>
       <c r="H22">
         <v>5</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>14</v>
       </c>
       <c r="J22">
         <v>111</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1545,10 +1546,10 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>64</v>
       </c>
       <c r="D23">
@@ -1560,19 +1561,19 @@
       <c r="F23">
         <v>31</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>22</v>
       </c>
       <c r="H23">
         <v>5</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>19</v>
       </c>
       <c r="J23">
         <v>121</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1580,10 +1581,10 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>65</v>
       </c>
       <c r="D24">
@@ -1595,19 +1596,19 @@
       <c r="F24">
         <v>38</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" t="s">
         <v>27</v>
       </c>
       <c r="H24">
         <v>5</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>14</v>
       </c>
       <c r="J24">
         <v>106</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1615,10 +1616,10 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>66</v>
       </c>
       <c r="D25">
@@ -1630,19 +1631,19 @@
       <c r="F25">
         <v>35</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>13</v>
       </c>
       <c r="H25">
         <v>5</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>19</v>
       </c>
       <c r="J25">
         <v>109</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1650,10 +1651,10 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>67</v>
       </c>
       <c r="D26">
@@ -1665,19 +1666,19 @@
       <c r="F26">
         <v>27</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>18</v>
       </c>
       <c r="H26">
         <v>5</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>19</v>
       </c>
       <c r="J26">
         <v>114</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1685,10 +1686,10 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>68</v>
       </c>
       <c r="D27">
@@ -1700,19 +1701,19 @@
       <c r="F27">
         <v>23</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>22</v>
       </c>
       <c r="H27">
         <v>5</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>19</v>
       </c>
       <c r="J27">
         <v>91</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1720,10 +1721,10 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>69</v>
       </c>
       <c r="D28">
@@ -1735,19 +1736,19 @@
       <c r="F28">
         <v>30</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>37</v>
       </c>
       <c r="H28">
         <v>5</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>19</v>
       </c>
       <c r="J28">
         <v>99</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1755,10 +1756,10 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>70</v>
       </c>
       <c r="D29">
@@ -1770,19 +1771,19 @@
       <c r="F29">
         <v>27</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>13</v>
       </c>
       <c r="H29">
         <v>5</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>19</v>
       </c>
       <c r="J29">
         <v>176</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1790,10 +1791,10 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>71</v>
       </c>
       <c r="D30">
@@ -1805,19 +1806,19 @@
       <c r="F30">
         <v>30</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>27</v>
       </c>
       <c r="H30">
         <v>7</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>19</v>
       </c>
       <c r="J30">
         <v>113</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1825,10 +1826,10 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>72</v>
       </c>
       <c r="D31">
@@ -1840,19 +1841,19 @@
       <c r="F31">
         <v>37</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>22</v>
       </c>
       <c r="H31">
         <v>5</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>14</v>
       </c>
       <c r="J31">
         <v>119</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1860,10 +1861,10 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>73</v>
       </c>
       <c r="D32">
@@ -1875,19 +1876,19 @@
       <c r="F32">
         <v>36</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>37</v>
       </c>
       <c r="H32">
         <v>5</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>19</v>
       </c>
       <c r="J32">
         <v>94</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1895,10 +1896,10 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>75</v>
       </c>
       <c r="D33">
@@ -1910,19 +1911,19 @@
       <c r="F33">
         <v>32</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>13</v>
       </c>
       <c r="H33">
         <v>4</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>19</v>
       </c>
       <c r="J33">
         <v>97</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1930,10 +1931,10 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>77</v>
       </c>
       <c r="D34">
@@ -1945,19 +1946,19 @@
       <c r="F34">
         <v>29</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>18</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>19</v>
       </c>
       <c r="J34">
         <v>99</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1965,10 +1966,10 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>79</v>
       </c>
       <c r="D35">
@@ -1980,19 +1981,19 @@
       <c r="F35">
         <v>30</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" t="s">
         <v>22</v>
       </c>
       <c r="H35">
         <v>5</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>19</v>
       </c>
       <c r="J35">
         <v>103</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2000,10 +2001,10 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>81</v>
       </c>
       <c r="D36">
@@ -2015,19 +2016,19 @@
       <c r="F36">
         <v>40</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" t="s">
         <v>18</v>
       </c>
       <c r="H36">
         <v>7</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>19</v>
       </c>
       <c r="J36">
         <v>108</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2035,10 +2036,10 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>83</v>
       </c>
       <c r="D37">
@@ -2050,19 +2051,19 @@
       <c r="F37">
         <v>29</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>27</v>
       </c>
       <c r="H37">
         <v>5</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>19</v>
       </c>
       <c r="J37">
         <v>73</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2070,10 +2071,10 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>85</v>
       </c>
       <c r="D38">
@@ -2085,19 +2086,19 @@
       <c r="F38">
         <v>30</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>37</v>
       </c>
       <c r="H38">
         <v>7</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>19</v>
       </c>
       <c r="J38">
         <v>91</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2105,10 +2106,10 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>87</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>88</v>
       </c>
       <c r="D39">
@@ -2120,19 +2121,19 @@
       <c r="F39">
         <v>31</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" t="s">
         <v>22</v>
       </c>
       <c r="H39">
         <v>5</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>19</v>
       </c>
       <c r="J39">
         <v>110</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2140,10 +2141,10 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>89</v>
       </c>
       <c r="D40">
@@ -2155,19 +2156,19 @@
       <c r="F40">
         <v>32</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>18</v>
       </c>
       <c r="H40">
         <v>7</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>19</v>
       </c>
       <c r="J40">
         <v>97</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2175,10 +2176,10 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>91</v>
       </c>
       <c r="D41">
@@ -2190,19 +2191,19 @@
       <c r="F41">
         <v>33</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s">
         <v>27</v>
       </c>
       <c r="H41">
         <v>5</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>19</v>
       </c>
       <c r="J41">
         <v>112</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="K41" t="s">
         <v>38</v>
       </c>
     </row>
